--- a/calificaciones.xlsx
+++ b/calificaciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Profesor</t>
   </si>
@@ -28,46 +28,7 @@
     <t>Ver Calificaciones</t>
   </si>
   <si>
-    <t>SOSA ESCOBEDO ABEL</t>
-  </si>
-  <si>
-    <t>BURCIAGA PEREZ JESUS ADRIAN</t>
-  </si>
-  <si>
-    <t>SALAZAR RODRIGUEZ IGMAR</t>
-  </si>
-  <si>
-    <t>MARTINEZ SALAZAR PAULINA</t>
-  </si>
-  <si>
-    <t>OCHOA DEL TORO DAVID</t>
-  </si>
-  <si>
-    <t>ROSALES LOPEZ ANA XOCHITL</t>
-  </si>
-  <si>
-    <t>Administración de Proyectos de TI</t>
-  </si>
-  <si>
-    <t>Desarrollo para Dispositivos Inteligentes</t>
-  </si>
-  <si>
-    <t>Desarrollo WEB Integral</t>
-  </si>
-  <si>
-    <t>Dirección de Equipos de Alto Rendimiento</t>
-  </si>
-  <si>
-    <t>Extracción de Conocimiento en Bases de Datos</t>
-  </si>
-  <si>
-    <t>Inglés VIII</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>No se encontraron registros</t>
   </si>
 </sst>
 </file>
@@ -425,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,69 +408,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
